--- a/data/outputs/management_altmetric/86.xlsx
+++ b/data/outputs/management_altmetric/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE108"/>
+  <dimension ref="A1:CF108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1011,6 +1016,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1256,6 +1264,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1495,6 +1506,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1744,6 +1758,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1989,6 +2006,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2224,6 +2244,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2463,6 +2486,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2702,6 +2728,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2951,6 +2980,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3200,6 +3232,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3449,6 +3484,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3692,6 +3730,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3939,6 +3980,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4190,6 +4234,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4429,6 +4476,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4672,6 +4722,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4909,6 +4962,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5166,6 +5222,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5427,6 +5486,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5684,6 +5746,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5925,6 +5990,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6178,6 +6246,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6411,6 +6482,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6632,6 +6706,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6859,6 +6936,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7108,6 +7188,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7363,6 +7446,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7620,6 +7706,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7861,6 +7950,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8098,6 +8190,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8350,6 +8445,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>48.112</v>
       </c>
     </row>
     <row r="33">
@@ -8592,6 +8690,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8841,6 +8942,9 @@
       <c r="CE34" t="n">
         <v>1</v>
       </c>
+      <c r="CF34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9090,6 +9194,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9343,6 +9450,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9592,6 +9702,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9844,6 +9957,9 @@
       </c>
       <c r="CE38" t="n">
         <v>0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -10090,6 +10206,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10338,6 +10457,9 @@
       </c>
       <c r="CE40" t="n">
         <v>1</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>43.98</v>
       </c>
     </row>
     <row r="41">
@@ -10584,6 +10706,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10841,6 +10966,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>30.442</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11080,6 +11208,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11333,6 +11464,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11564,6 +11698,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11809,6 +11946,9 @@
       <c r="CE46" t="n">
         <v>1</v>
       </c>
+      <c r="CF46" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12050,6 +12190,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12303,6 +12446,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12552,6 +12698,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12787,6 +12936,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13042,6 +13194,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13287,6 +13442,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13536,6 +13694,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13777,6 +13938,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14018,6 +14182,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14271,6 +14438,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14524,6 +14694,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14793,6 +14966,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15036,6 +15212,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15275,6 +15454,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15532,6 +15714,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15783,6 +15968,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16038,6 +16226,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16277,6 +16468,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16530,6 +16724,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16785,6 +16982,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17030,6 +17230,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17275,6 +17478,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17518,6 +17724,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17767,6 +17976,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18012,6 +18224,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18253,6 +18468,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18505,6 +18723,9 @@
       </c>
       <c r="CE73" t="n">
         <v>1</v>
+      </c>
+      <c r="CF73" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -18767,6 +18988,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19010,6 +19234,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19245,6 +19472,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19486,6 +19716,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19735,6 +19968,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19984,6 +20220,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>29.85</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20237,6 +20476,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20484,6 +20726,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20723,6 +20968,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20970,6 +21218,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21215,6 +21466,9 @@
       <c r="CE84" t="n">
         <v>1</v>
       </c>
+      <c r="CF84" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21466,6 +21720,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21701,6 +21958,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21946,6 +22206,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22195,6 +22458,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22454,6 +22720,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22707,6 +22976,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22952,6 +23224,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23191,6 +23466,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23446,6 +23724,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23693,6 +23974,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23942,6 +24226,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24197,6 +24484,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24446,6 +24736,9 @@
         <v>0</v>
       </c>
       <c r="CE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24693,6 +24986,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>11.08</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24958,6 +25254,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>7.45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25207,6 +25506,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25458,6 +25760,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25717,6 +26022,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25966,6 +26274,9 @@
         <v>0</v>
       </c>
       <c r="CE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26211,6 +26522,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26472,6 +26786,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26735,6 +27052,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26988,6 +27308,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27241,6 +27564,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
